--- a/metadata_files/06_metadata_phenology/01_WORKING_monthly_datatypes/Grey Petrel_Antipodes Islands.xlsx
+++ b/metadata_files/06_metadata_phenology/01_WORKING_monthly_datatypes/Grey Petrel_Antipodes Islands.xlsx
@@ -2861,13 +2861,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CA5BE332-F910-483F-9FFC-0889A5961C00}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{78F45C1F-BD37-4A26-B537-DC7D293D961F}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4C2339F1-F815-4CC0-B226-DBE2FE166873}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B982FF79-E8D6-4E5D-85CB-1C9E13FD3D4A}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B924F1D5-92F6-4F9E-90BE-AD17ECD853E1}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{65103485-6F1A-4844-B2A0-EEDA610AF27F}"/>
 </file>